--- a/Master-Employee-List.xlsx
+++ b/Master-Employee-List.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony Nudd\Documents\UiPath\HARI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B3C683-E387-4E45-9060-410CEAAD0723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E29A6B-F8E4-46E4-BE27-40F25C6E6E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{A1D2FFEF-13EB-4390-A097-2EB9571FBE03}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A1D2FFEF-13EB-4390-A097-2EB9571FBE03}"/>
   </bookViews>
   <sheets>
     <sheet name="Master File" sheetId="1" r:id="rId1"/>
-    <sheet name="Reports" sheetId="2" r:id="rId2"/>
+    <sheet name="Distribution" sheetId="3" r:id="rId2"/>
+    <sheet name="Reports" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="117">
   <si>
     <t>Email</t>
   </si>
@@ -376,6 +377,15 @@
   </si>
   <si>
     <t>Wendy.Stick@somewhere.com</t>
+  </si>
+  <si>
+    <t>tony.nudd@uipath.com</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Nudd</t>
   </si>
 </sst>
 </file>
@@ -601,6 +611,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -621,6 +636,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -641,6 +661,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -661,6 +686,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -681,6 +711,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -701,6 +736,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -723,6 +763,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -745,6 +790,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -767,6 +817,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -789,6 +844,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -811,6 +871,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -833,6 +898,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -856,6 +926,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -879,6 +954,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -902,6 +982,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -925,6 +1010,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -948,6 +1038,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -971,6 +1066,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -993,6 +1093,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -1015,6 +1120,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -1037,6 +1147,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -1059,6 +1174,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -1081,6 +1201,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-FA8C-485D-9391-9353FBC7A65C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1645,6 +1770,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000031-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -1665,6 +1795,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000033-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -1685,6 +1820,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000035-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -1705,6 +1845,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000037-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="5"/>
@@ -1725,6 +1870,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000039-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="6"/>
@@ -1747,6 +1897,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000003B-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="7"/>
@@ -1769,6 +1924,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000003D-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="8"/>
@@ -1791,6 +1951,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000003F-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="9"/>
@@ -1813,6 +1978,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000041-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="10"/>
@@ -1835,6 +2005,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000043-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="11"/>
@@ -1857,6 +2032,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000045-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="12"/>
@@ -1880,6 +2060,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000047-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="13"/>
@@ -1903,6 +2088,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000049-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="14"/>
@@ -1926,6 +2116,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000004B-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="15"/>
@@ -1949,6 +2144,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000004D-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="16"/>
@@ -1972,6 +2172,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000004F-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="17"/>
@@ -1995,6 +2200,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000051-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="18"/>
@@ -2017,6 +2227,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000053-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="19"/>
@@ -2039,6 +2254,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000055-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="20"/>
@@ -2061,6 +2281,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000057-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="21"/>
@@ -2083,6 +2308,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000059-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="22"/>
@@ -2105,6 +2335,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000005B-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -2645,6 +2880,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000005D-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -2665,6 +2905,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000005F-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -2685,6 +2930,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000061-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -2705,6 +2955,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000063-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -2725,6 +2980,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000065-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="5"/>
@@ -2745,6 +3005,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000067-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="6"/>
@@ -2767,6 +3032,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000069-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="7"/>
@@ -2789,6 +3059,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000006B-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="8"/>
@@ -2811,6 +3086,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000006D-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="9"/>
@@ -2833,6 +3113,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000006F-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="10"/>
@@ -2855,6 +3140,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000071-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="11"/>
@@ -2877,6 +3167,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000073-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="12"/>
@@ -2900,6 +3195,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000075-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="13"/>
@@ -2923,6 +3223,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000077-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="14"/>
@@ -2946,6 +3251,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000079-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="15"/>
@@ -2969,6 +3279,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000007B-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="16"/>
@@ -2992,6 +3307,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000007D-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="17"/>
@@ -3015,6 +3335,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000007F-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="18"/>
@@ -3037,6 +3362,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000081-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="19"/>
@@ -3059,6 +3389,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000083-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="20"/>
@@ -3081,6 +3416,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000085-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="21"/>
@@ -3103,6 +3443,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000087-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="22"/>
@@ -3125,6 +3470,11 @@
                       </a:contourClr>
                     </a:sp3d>
                   </c:spPr>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000089-FA8C-485D-9391-9353FBC7A65C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -3178,13 +3528,13 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Reports!$B$23:$F$45</c15:sqref>
@@ -3553,7 +3903,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Reports!$I$23:$I$45</c15:sqref>
@@ -3575,7 +3925,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-FC11-4DB2-AA78-A94CAD7CD6BC}"/>
                   </c:ext>
@@ -4565,10 +4915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A607C2-FAC4-47D6-A407-22353E636CBF}">
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4702,18 +5052,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -4784,32 +5134,32 @@
       <c r="AB2" s="1">
         <v>44108</v>
       </c>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3">
-        <v>43914</v>
-      </c>
+      <c r="AG2" s="1">
+        <v>43919</v>
+      </c>
+      <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
       <c r="F3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>36.200000000000003</v>
@@ -4827,19 +5177,19 @@
         <v>36.200000000000003</v>
       </c>
       <c r="M3">
-        <v>36.200000000000003</v>
+        <v>41.8</v>
       </c>
       <c r="N3">
-        <v>36.200000000000003</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="S3" t="s">
         <v>23</v>
@@ -4858,6 +5208,18 @@
       </c>
       <c r="X3" t="s">
         <v>23</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>43834</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>44108</v>
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3">
@@ -4866,22 +5228,22 @@
     </row>
     <row r="4" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4909,6 +5271,12 @@
       </c>
       <c r="O4" t="s">
         <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>91</v>
       </c>
       <c r="S4" t="s">
         <v>23</v>
@@ -4935,19 +5303,19 @@
     </row>
     <row r="5" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F5">
         <v>3000</v>
@@ -5004,25 +5372,25 @@
     </row>
     <row r="6" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>36.200000000000003</v>
@@ -5037,22 +5405,16 @@
         <v>36.200000000000003</v>
       </c>
       <c r="L6">
-        <v>41.8</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="M6">
-        <v>41.8</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="N6">
-        <v>41.8</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="O6" t="s">
         <v>23</v>
-      </c>
-      <c r="P6" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>91</v>
       </c>
       <c r="S6" t="s">
         <v>23</v>
@@ -5079,25 +5441,25 @@
     </row>
     <row r="7" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F7">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>36.200000000000003</v>
@@ -5112,16 +5474,22 @@
         <v>36.200000000000003</v>
       </c>
       <c r="L7">
-        <v>36.200000000000003</v>
+        <v>41.8</v>
       </c>
       <c r="M7">
-        <v>36.200000000000003</v>
+        <v>41.8</v>
       </c>
       <c r="N7">
-        <v>36.200000000000003</v>
+        <v>41.8</v>
       </c>
       <c r="O7" t="s">
         <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>91</v>
       </c>
       <c r="S7" t="s">
         <v>23</v>
@@ -5148,19 +5516,19 @@
     </row>
     <row r="8" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>3000</v>
@@ -5191,12 +5559,6 @@
       </c>
       <c r="O8" t="s">
         <v>23</v>
-      </c>
-      <c r="P8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>22</v>
       </c>
       <c r="S8" t="s">
         <v>23</v>
@@ -5223,19 +5585,19 @@
     </row>
     <row r="9" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F9">
         <v>3000</v>
@@ -5298,25 +5660,25 @@
     </row>
     <row r="10" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
       </c>
       <c r="F10">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>36.200000000000003</v>
@@ -5331,16 +5693,22 @@
         <v>36.200000000000003</v>
       </c>
       <c r="L10">
-        <v>41.8</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="M10">
-        <v>41.8</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="N10">
-        <v>41.8</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="O10" t="s">
         <v>23</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
       </c>
       <c r="S10" t="s">
         <v>23</v>
@@ -5367,25 +5735,25 @@
     </row>
     <row r="11" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>36.200000000000003</v>
@@ -5400,13 +5768,13 @@
         <v>36.200000000000003</v>
       </c>
       <c r="L11">
-        <v>36.200000000000003</v>
+        <v>41.8</v>
       </c>
       <c r="M11">
-        <v>36.200000000000003</v>
+        <v>41.8</v>
       </c>
       <c r="N11">
-        <v>36.200000000000003</v>
+        <v>41.8</v>
       </c>
       <c r="O11" t="s">
         <v>23</v>
@@ -5436,16 +5804,16 @@
     </row>
     <row r="12" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
@@ -5505,25 +5873,25 @@
     </row>
     <row r="13" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13">
         <v>3000</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>36.200000000000003</v>
@@ -5574,25 +5942,25 @@
     </row>
     <row r="14" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F14">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>36.200000000000003</v>
@@ -5617,12 +5985,6 @@
       </c>
       <c r="O14" t="s">
         <v>23</v>
-      </c>
-      <c r="P14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>22</v>
       </c>
       <c r="S14" t="s">
         <v>23</v>
@@ -5649,22 +6011,22 @@
     </row>
     <row r="15" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -5724,16 +6086,16 @@
     </row>
     <row r="16" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
@@ -5767,6 +6129,12 @@
       </c>
       <c r="O16" t="s">
         <v>23</v>
+      </c>
+      <c r="P16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>22</v>
       </c>
       <c r="S16" t="s">
         <v>23</v>
@@ -5793,25 +6161,25 @@
     </row>
     <row r="17" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <v>3000</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>36.200000000000003</v>
@@ -5832,7 +6200,7 @@
         <v>36.200000000000003</v>
       </c>
       <c r="N17">
-        <v>41.8</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="O17" t="s">
         <v>23</v>
@@ -5862,25 +6230,25 @@
     </row>
     <row r="18" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F18">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>36.200000000000003</v>
@@ -5901,16 +6269,10 @@
         <v>36.200000000000003</v>
       </c>
       <c r="N18">
-        <v>36.200000000000003</v>
+        <v>41.8</v>
       </c>
       <c r="O18" t="s">
         <v>23</v>
-      </c>
-      <c r="P18" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>91</v>
       </c>
       <c r="S18" t="s">
         <v>23</v>
@@ -5937,22 +6299,22 @@
     </row>
     <row r="19" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -5982,10 +6344,10 @@
         <v>23</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="Q19" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="S19" t="s">
         <v>23</v>
@@ -6012,19 +6374,19 @@
     </row>
     <row r="20" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F20">
         <v>3000</v>
@@ -6055,6 +6417,12 @@
       </c>
       <c r="O20" t="s">
         <v>23</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>22</v>
       </c>
       <c r="S20" t="s">
         <v>23</v>
@@ -6081,22 +6449,22 @@
     </row>
     <row r="21" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -6124,12 +6492,6 @@
       </c>
       <c r="O21" t="s">
         <v>23</v>
-      </c>
-      <c r="P21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>91</v>
       </c>
       <c r="S21" t="s">
         <v>23</v>
@@ -6156,25 +6518,25 @@
     </row>
     <row r="22" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F22">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>36.200000000000003</v>
@@ -6199,6 +6561,12 @@
       </c>
       <c r="O22" t="s">
         <v>23</v>
+      </c>
+      <c r="P22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>91</v>
       </c>
       <c r="S22" t="s">
         <v>23</v>
@@ -6225,25 +6593,25 @@
     </row>
     <row r="23" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F23">
         <v>3000</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>36.200000000000003</v>
@@ -6268,12 +6636,6 @@
       </c>
       <c r="O23" t="s">
         <v>23</v>
-      </c>
-      <c r="P23" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>22</v>
       </c>
       <c r="S23" t="s">
         <v>23</v>
@@ -6300,16 +6662,16 @@
     </row>
     <row r="24" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
         <v>88</v>
@@ -6318,7 +6680,7 @@
         <v>3000</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>36.200000000000003</v>
@@ -6374,22 +6736,548 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25">
+        <v>3000</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="I25">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="J25">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="K25">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="L25">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="M25">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="N25">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="O25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" t="s">
+        <v>20</v>
+      </c>
+      <c r="W25" t="s">
+        <v>23</v>
+      </c>
+      <c r="X25" t="s">
+        <v>23</v>
+      </c>
       <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
+      <c r="AH25" s="3">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>3000</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" t="s">
+        <v>20</v>
+      </c>
+      <c r="W26" t="s">
+        <v>23</v>
+      </c>
+      <c r="X26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>43834</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>44108</v>
+      </c>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3">
+        <v>43919</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7E54FB07-68CE-4560-BAF8-158F18B82359}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BD66EB-FCE1-40EB-B2A0-5DB59CB78177}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{FCEB3EA6-D206-4F17-98E1-7275D5270047}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD25950C-7FB8-4029-B5E0-F2BBA2ED4F54}">
   <dimension ref="B22:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
